--- a/src/main/resources/caseconf/InfoPut/Case_userinfoput.xlsx
+++ b/src/main/resources/caseconf/InfoPut/Case_userinfoput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Data_Center_Platform/src/main/resources/caseconf/userinfoput/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Auto_test/Data_Center_Platform/src/main/resources/caseconf/InfoPut/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="205">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -308,25 +308,6 @@
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"1001",
-"tenantUserId": "000111",
-"bloodType":"O",
-"religion":"汉族",
-"workingStatus":"在职",
-"bornCity":"河北",
-"country":"中国",
-"province":"河北省",
-"city":"衡水市",
-"district":"景县",
-"street":"北街",
-"village":"东王",
-"streetCodeRt":"街道rt",
-"streetCodeRw":"街道rw"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -900,15 +881,6 @@
 DELETE FROM user_index WHERE tenant_id = "1001" and tenant_user_id = "111111";</t>
   </si>
   <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId":"1001",
 "tenantUserId": "111111",
@@ -1869,16 +1841,6 @@
 "sss":"dkdk"
 }
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into `seraph`.`user_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `blood_type`, `religion`, `working_status`, `born_city`, `country`, `province`, `city`, `district`, `street`, `village`, `street_code_rt`, `street_code_rw`, `create_time`, `update_time`, `school`, `degree`, `education`, `education_status`, `marital`, `other_info`) values ( '699222007535509999', '1001', '111111', 'O', '汉族', '在职', '河北', '中国', '河北省', '衡水市', '景县', '北街', '东王', '街道rt', '街道rw', '2020-05-15 18:41:34', '2020-05-15 18:41:34', '廊坊', '学士', '本科', '毕业', '已婚', '{\"sss\":\"dkdk\"}');</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2856,6 +2818,49 @@
   </si>
   <si>
     <t>043</t>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("699222007535509504","1001","111111","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509999","1001","111111",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509999","1001","111111","dca7ac134311d1a7699db2f9d2189350","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into `seraph`.`user_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `blood_type`, `religion`, `working_status`, `born_city`, `country`, `province`, `city`, `district`, `street`, `village`, `street_code_rt`, `street_code_rw`, `create_time`, `update_time`, `school`, `degree`, `education`, `education_status`, `marital`, `other_info`) values ( '699222007535509999', '1001', '111111', 'O', '汉族', '在职', '河北', '中国', '河北省', '衡水市', '景县', '北街', '东王', '街道rt', '街道rw', '2020-05-15 18:41:34', '2020-05-15 18:41:34', '廊坊', '学士', '本科', '毕业', '已婚', '{\"sss\":\"dkdk\"}');</t>
+  </si>
+  <si>
+    <t>DELETE FROM user_info WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_info_item WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_basic_info WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_index WHERE tenant_id = "1001" and tenant_user_id = "111111";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "890890",
+"bloodType":"O",
+"religion":"汉族",
+"workingStatus":"在职",
+"bornCity":"河北",
+"country":"中国",
+"province":"河北省",
+"city":"衡水市",
+"district":"景县",
+"street":"北街",
+"village":"东王",
+"streetCodeRt":"街道rt",
+"streetCodeRw":"街道rw"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3341,10 +3346,10 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B44"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3412,15 +3417,15 @@
         <v>16</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>23</v>
@@ -3433,10 +3438,10 @@
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>30</v>
@@ -3448,18 +3453,18 @@
         <v>13</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
@@ -3467,20 +3472,20 @@
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="26" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>30</v>
@@ -3492,39 +3497,39 @@
         <v>13</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -3536,39 +3541,39 @@
         <v>13</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>14</v>
@@ -3580,38 +3585,38 @@
         <v>13</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -3623,36 +3628,36 @@
         <v>13</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>14</v>
@@ -3664,36 +3669,36 @@
         <v>13</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>14</v>
@@ -3705,36 +3710,36 @@
         <v>13</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
@@ -3746,36 +3751,36 @@
         <v>13</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
@@ -3787,36 +3792,36 @@
         <v>13</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
@@ -3828,36 +3833,36 @@
         <v>13</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>14</v>
@@ -3869,36 +3874,36 @@
         <v>13</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>14</v>
@@ -3910,36 +3915,36 @@
         <v>13</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>14</v>
@@ -3951,36 +3956,36 @@
         <v>13</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>14</v>
@@ -3992,36 +3997,36 @@
         <v>13</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>14</v>
@@ -4033,36 +4038,36 @@
         <v>13</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>14</v>
@@ -4074,36 +4079,36 @@
         <v>13</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>14</v>
@@ -4115,36 +4120,36 @@
         <v>13</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>14</v>
@@ -4156,36 +4161,36 @@
         <v>13</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>14</v>
@@ -4197,36 +4202,36 @@
         <v>13</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>14</v>
@@ -4238,36 +4243,36 @@
         <v>13</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>14</v>
@@ -4279,36 +4284,36 @@
         <v>13</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>14</v>
@@ -4320,36 +4325,36 @@
         <v>13</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>14</v>
@@ -4361,36 +4366,36 @@
         <v>13</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>14</v>
@@ -4402,36 +4407,36 @@
         <v>13</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>14</v>
@@ -4443,36 +4448,36 @@
         <v>13</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>14</v>
@@ -4484,36 +4489,36 @@
         <v>13</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>14</v>
@@ -4525,36 +4530,36 @@
         <v>13</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>14</v>
@@ -4566,36 +4571,36 @@
         <v>13</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>14</v>
@@ -4607,36 +4612,36 @@
         <v>13</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>14</v>
@@ -4648,36 +4653,36 @@
         <v>13</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>14</v>
@@ -4689,36 +4694,36 @@
         <v>13</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>14</v>
@@ -4730,36 +4735,36 @@
         <v>13</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>14</v>
@@ -4771,36 +4776,36 @@
         <v>13</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>14</v>
@@ -4812,36 +4817,36 @@
         <v>13</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P35" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>14</v>
@@ -4853,36 +4858,36 @@
         <v>13</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>14</v>
@@ -4894,36 +4899,36 @@
         <v>13</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P37" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>14</v>
@@ -4935,36 +4940,36 @@
         <v>13</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>14</v>
@@ -4976,24 +4981,24 @@
         <v>13</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="12" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>18</v>
@@ -5014,7 +5019,7 @@
         <v>13</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="19" t="s">
@@ -5025,10 +5030,10 @@
     </row>
     <row r="41" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>17</v>
@@ -5049,21 +5054,21 @@
         <v>13</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>19</v>
@@ -5084,21 +5089,21 @@
         <v>13</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>20</v>
@@ -5119,21 +5124,21 @@
         <v>13</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>21</v>
@@ -5154,11 +5159,11 @@
         <v>13</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N44" s="9"/>
       <c r="O44" s="11"/>
